--- a/biology/Zoologie/Eocrinoidea/Eocrinoidea.xlsx
+++ b/biology/Zoologie/Eocrinoidea/Eocrinoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eocrinoidea (éocrinoïdes en français) forment une classe d'échinodermes connus uniquement sous forme fossile.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces fossiles rappellent par leur forme des crinoïdes (leur nom signifie « crinoïdes de l'aube »), mais de forme plus effilée. Ils sont les plus anciens représentants connus de ce groupe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces fossiles rappellent par leur forme des crinoïdes (leur nom signifie « crinoïdes de l'aube »), mais de forme plus effilée. Ils sont les plus anciens représentants connus de ce groupe.
 Comme leurs cousins les cystoïdes, les blastoïdes et les crinoïdes, les éocrinoïdes étaient des animaux marins benthiques, sessiles et suspensivores, se nourrissant par filtration de l'eau.
-Comme la plupart des échinodermes, leur corps était protégé par un ensemble de plaques calcaires emboîtées, formant ici une « thèque » solide et allongée, souvent en forme de cône arrondi ou de sac. Celle-ci contient la bouche au centre, entourée d'organes filtreurs appelés brachioles. Cette thèque se prolongeait parfois en un appendice dorsal allongé (mais différent de la tige des crinoïdes car pas formé d'articles), l'autre extrémité étant fixée au substrat[1].
+Comme la plupart des échinodermes, leur corps était protégé par un ensemble de plaques calcaires emboîtées, formant ici une « thèque » solide et allongée, souvent en forme de cône arrondi ou de sac. Celle-ci contient la bouche au centre, entourée d'organes filtreurs appelés brachioles. Cette thèque se prolongeait parfois en un appendice dorsal allongé (mais différent de la tige des crinoïdes car pas formé d'articles), l'autre extrémité étant fixée au substrat.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Registre fossile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les éocrinoïdes, l'un des plus anciens groupes d'échinodermes, apparaissent au Cambrien inférieur, sont les échinodermes dominants au Cambrien, diminuent fortement lors de l'extinction Ordovicien-Silurien et disparaissent pendant le Silurien (530-419 Ma)[2] : en dépit de leur nom, ils ne sont pas les ancêtres des crinoïdes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les éocrinoïdes, l'un des plus anciens groupes d'échinodermes, apparaissent au Cambrien inférieur, sont les échinodermes dominants au Cambrien, diminuent fortement lors de l'extinction Ordovicien-Silurien et disparaissent pendant le Silurien (530-419 Ma) : en dépit de leur nom, ils ne sont pas les ancêtres des crinoïdes.
 Une des espèces-types est Gogia spiralis, fréquemment retrouvée dans les calcaires de l'Ordovicien du sud des États-Unis.
 			Attaches d'éocrinoïdes de l'Ordovicien
 			Acanthocystites briareus par Ernst Haeckel.
@@ -582,9 +598,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 août 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 août 2020) :
 ordre Ascocystida Haeckel, 1896 †
 ordre Gogiida Broadhead, 1982 †
 famille Ampheristocystidae Frest, 2005 †
